--- a/singleStation.xlsx
+++ b/singleStation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37abcfb3d2f7e583/Dropbox/CX 4010/4010h2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive\Dropbox\CX 4010\4010h2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2122,13 +2122,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2450,7 +2450,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
